--- a/iran_blackout_contacts.xlsx
+++ b/iran_blackout_contacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stgoverno-my.sharepoint.com/personal/reza_bazargan_governo_se/Documents/Dokument/Projekter/Free_Iran/LWK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{C3B3DC13-A8A4-472B-881E-E3D4BDF849F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E91FAEB-DF19-451D-AAA2-FE6C266164F0}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{C3B3DC13-A8A4-472B-881E-E3D4BDF849F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F67CE4DB-BE2E-4372-B6CD-344C43D610F9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15755,10 +15755,10 @@
     <t>https://www.europarl.europa.eu/meps/en/257010/LUDOVIT_ODOR/home</t>
   </si>
   <si>
-    <t>kn@regeringskansliet.se</t>
-  </si>
-  <si>
-    <t>li@regeringskansliet.se</t>
+    <t>kn.registrator@regeringskansliet.se</t>
+  </si>
+  <si>
+    <t>li.registrator@regeringskansliet.se</t>
   </si>
 </sst>
 </file>
@@ -36196,7 +36196,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -36788,8 +36788,8 @@
   <hyperlinks>
     <hyperlink ref="D14" r:id="rId1" xr:uid="{92D9ABF9-B34B-4F87-9D04-904343DCA170}"/>
     <hyperlink ref="D16" r:id="rId2" xr:uid="{C3B20145-6F09-4738-AD5B-D665E2CA1BA4}"/>
-    <hyperlink ref="D17" r:id="rId3" xr:uid="{78B42C4C-C5E4-4525-9934-9FFE61FECA2A}"/>
-    <hyperlink ref="D13" r:id="rId4" xr:uid="{236DFDE3-4F55-4FB7-8A3C-40551CE4FF78}"/>
+    <hyperlink ref="D13" r:id="rId3" xr:uid="{D6D40444-A80F-41DA-8BEA-B98E98F213E1}"/>
+    <hyperlink ref="D17" r:id="rId4" xr:uid="{20CC1BD5-0F60-4307-9721-A1AF3D629FC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
